--- a/results/FrequencyTables/26990633_LTR-A.xlsx
+++ b/results/FrequencyTables/26990633_LTR-A.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.525252525252525</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="C2">
-        <v>0.0101010101010101</v>
+        <v>0.016602809706258</v>
       </c>
       <c r="D2">
-        <v>0.0808080808080808</v>
+        <v>0.0600255427841635</v>
       </c>
       <c r="E2">
-        <v>0.939393939393939</v>
+        <v>0.945083014048531</v>
       </c>
       <c r="F2">
-        <v>0.0101010101010101</v>
+        <v>0.0114942528735632</v>
       </c>
       <c r="G2">
-        <v>0.939393939393939</v>
+        <v>0.943805874840358</v>
       </c>
       <c r="H2">
-        <v>0.0202020202020202</v>
+        <v>0.0140485312899106</v>
       </c>
       <c r="I2">
-        <v>0.757575757575758</v>
+        <v>0.731800766283525</v>
       </c>
       <c r="J2">
-        <v>0.0404040404040404</v>
+        <v>0.0408684546615581</v>
       </c>
       <c r="K2">
-        <v>0.0505050505050505</v>
+        <v>0.0395913154533844</v>
       </c>
       <c r="L2">
-        <v>0.0404040404040404</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="M2">
-        <v>0.898989898989899</v>
+        <v>0.840357598978289</v>
       </c>
       <c r="N2">
-        <v>0.0101010101010101</v>
+        <v>0.0102171136653895</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0404040404040404</v>
+        <v>0.033205619412516</v>
       </c>
       <c r="Q2">
-        <v>0.929292929292929</v>
+        <v>0.9272030651341</v>
       </c>
       <c r="R2">
-        <v>0.0101010101010101</v>
+        <v>0.00638569604086846</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00383141762452107</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00638569604086846</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0114942528735632</v>
       </c>
       <c r="X2">
-        <v>0.0101010101010101</v>
+        <v>0.00766283524904215</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0101010101010101</v>
+        <v>0.0664112388250319</v>
       </c>
       <c r="C3">
-        <v>0.252525252525253</v>
+        <v>0.348659003831418</v>
       </c>
       <c r="D3">
-        <v>0.757575757575758</v>
+        <v>0.842911877394636</v>
       </c>
       <c r="E3">
-        <v>0.0404040404040404</v>
+        <v>0.0446998722860792</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00127713920817369</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0808080808080808</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="I3">
-        <v>0.0404040404040404</v>
+        <v>0.0357598978288633</v>
       </c>
       <c r="J3">
-        <v>0.111111111111111</v>
+        <v>0.130268199233716</v>
       </c>
       <c r="K3">
-        <v>0.909090909090909</v>
+        <v>0.920817369093231</v>
       </c>
       <c r="L3">
-        <v>0.95959595959596</v>
+        <v>0.960408684546616</v>
       </c>
       <c r="M3">
-        <v>0.0606060606060606</v>
+        <v>0.109833971902937</v>
       </c>
       <c r="N3">
-        <v>0.898989898989899</v>
+        <v>0.919540229885057</v>
       </c>
       <c r="O3">
-        <v>0.0202020202020202</v>
+        <v>0.0153256704980843</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00127713920817369</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.838383838383838</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="S3">
-        <v>0.98989898989899</v>
+        <v>0.983397190293742</v>
       </c>
       <c r="T3">
-        <v>0.0505050505050505</v>
+        <v>0.053639846743295</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00766283524904215</v>
       </c>
       <c r="V3">
-        <v>0.0202020202020202</v>
+        <v>0.0217113665389527</v>
       </c>
       <c r="W3">
-        <v>0.0404040404040404</v>
+        <v>0.033205619412516</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.00127713920817369</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,55 +613,55 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.444444444444444</v>
+        <v>0.352490421455939</v>
       </c>
       <c r="C4">
-        <v>0.0303030303030303</v>
+        <v>0.0255427841634738</v>
       </c>
       <c r="D4">
-        <v>0.0101010101010101</v>
+        <v>0.00383141762452107</v>
       </c>
       <c r="E4">
-        <v>0.0101010101010101</v>
+        <v>0.00383141762452107</v>
       </c>
       <c r="F4">
-        <v>0.939393939393939</v>
+        <v>0.945083014048531</v>
       </c>
       <c r="G4">
-        <v>0.0505050505050505</v>
+        <v>0.0523627075351213</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00255427841634738</v>
       </c>
       <c r="I4">
-        <v>0.0202020202020202</v>
+        <v>0.0191570881226054</v>
       </c>
       <c r="J4">
-        <v>0.0707070707070707</v>
+        <v>0.053639846743295</v>
       </c>
       <c r="K4">
-        <v>0.0404040404040404</v>
+        <v>0.037037037037037</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00127713920817369</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00638569604086846</v>
       </c>
       <c r="N4">
-        <v>0.0101010101010101</v>
+        <v>0.00383141762452107</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.95959595959596</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.00383141762452107</v>
       </c>
       <c r="R4">
-        <v>0.131313131313131</v>
+        <v>0.134099616858238</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00255427841634738</v>
       </c>
       <c r="V4">
-        <v>0.0707070707070707</v>
+        <v>0.0523627075351213</v>
       </c>
       <c r="W4">
-        <v>0.94949494949495</v>
+        <v>0.952745849297573</v>
       </c>
       <c r="X4">
-        <v>0.94949494949495</v>
+        <v>0.954022988505747</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0202020202020202</v>
+        <v>0.00638569604086846</v>
       </c>
       <c r="C5">
-        <v>0.707070707070707</v>
+        <v>0.609195402298851</v>
       </c>
       <c r="D5">
-        <v>0.151515151515152</v>
+        <v>0.0906768837803321</v>
       </c>
       <c r="E5">
-        <v>0.0101010101010101</v>
+        <v>0.00510855683269476</v>
       </c>
       <c r="F5">
-        <v>0.0505050505050505</v>
+        <v>0.0421455938697318</v>
       </c>
       <c r="G5">
-        <v>0.0101010101010101</v>
+        <v>0.00383141762452107</v>
       </c>
       <c r="H5">
-        <v>0.898989898989899</v>
+        <v>0.914431673052363</v>
       </c>
       <c r="I5">
-        <v>0.181818181818182</v>
+        <v>0.213282247765006</v>
       </c>
       <c r="J5">
-        <v>0.777777777777778</v>
+        <v>0.77522349936143</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00127713920817369</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00255427841634738</v>
       </c>
       <c r="M5">
-        <v>0.0404040404040404</v>
+        <v>0.0434227330779055</v>
       </c>
       <c r="N5">
-        <v>0.0808080808080808</v>
+        <v>0.0664112388250319</v>
       </c>
       <c r="O5">
-        <v>0.97979797979798</v>
+        <v>0.984674329501916</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00255427841634738</v>
       </c>
       <c r="Q5">
-        <v>0.0707070707070707</v>
+        <v>0.0689655172413793</v>
       </c>
       <c r="R5">
-        <v>0.0202020202020202</v>
+        <v>0.00766283524904215</v>
       </c>
       <c r="S5">
-        <v>0.0101010101010101</v>
+        <v>0.0127713920817369</v>
       </c>
       <c r="T5">
-        <v>0.94949494949495</v>
+        <v>0.946360153256705</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.983397190293742</v>
       </c>
       <c r="V5">
-        <v>0.909090909090909</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="W5">
-        <v>0.0101010101010101</v>
+        <v>0.00255427841634738</v>
       </c>
       <c r="X5">
-        <v>0.0404040404040404</v>
+        <v>0.037037037037037</v>
       </c>
     </row>
   </sheetData>
